--- a/DbLayouts/L2-業務作業/ClOtherRights.xlsx
+++ b/DbLayouts/L2-業務作業/ClOtherRights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24F357A-C310-4A85-97E5-4955380A36EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6273B1B2-9136-4280-9CF3-5A94BC194B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="79">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -260,10 +260,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>NVARCHAR2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>City</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -324,14 +320,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>縣市中文</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>地政所名稱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>findClCodeRange</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -354,6 +342,38 @@
   <si>
     <t>ClCode1 &gt;= ,AND ClCode1 &lt;= ,AND ClCode2 &gt;= ,AND ClCode2 &lt;= ,AND ClNo &gt;= ,AND ClNo &lt;=</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他縣市</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他地政</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">其他收件字 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自行輸入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OtherRecWord</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OtherLandAdm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OtherCity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -930,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -953,10 +973,10 @@
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
@@ -981,7 +1001,7 @@
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="14"/>
@@ -1106,7 +1126,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
+      <c r="A11" s="19">
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
@@ -1129,10 +1149,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>60</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>61</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>3</v>
@@ -1142,104 +1162,104 @@
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>5</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>51</v>
+      <c r="B13" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="18">
-        <v>3</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18" t="s">
-        <v>66</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="E13" s="19">
+        <v>2</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>6</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="E14" s="18">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="F14" s="18"/>
-      <c r="G14" s="18" t="s">
-        <v>67</v>
+      <c r="G14" s="19" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <v>7</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>53</v>
+      <c r="B15" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="E15" s="19">
-        <v>3</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+        <v>2</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="E16" s="18">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
+      <c r="G16" s="19" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D17" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="19">
         <v>3</v>
-      </c>
-      <c r="E17" s="19">
-        <v>6</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -1248,56 +1268,58 @@
       <c r="A18" s="19">
         <v>10</v>
       </c>
-      <c r="B18" s="18" t="s">
-        <v>58</v>
+      <c r="B18" s="19" t="s">
+        <v>53</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="18">
-        <v>10</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
+        <v>46</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="19">
+        <v>3</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="19">
-        <v>16</v>
-      </c>
-      <c r="F19" s="19">
-        <v>2</v>
-      </c>
-      <c r="G19" s="19"/>
+        <v>71</v>
+      </c>
+      <c r="E19" s="18">
+        <v>40</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
         <v>12</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="18"/>
+        <v>54</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="19">
+        <v>6</v>
+      </c>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
     </row>
@@ -1306,16 +1328,16 @@
         <v>13</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="19" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
@@ -1325,61 +1347,91 @@
         <v>14</v>
       </c>
       <c r="B22" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="19">
         <v>16</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="F22" s="19">
+        <v>2</v>
+      </c>
+      <c r="G22" s="19"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="19">
         <v>15</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="18">
-        <v>6</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
+      <c r="A24" s="19">
+        <v>16</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="18">
+        <v>6</v>
+      </c>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
+      <c r="A25" s="19">
+        <v>17</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
+      <c r="A26" s="19">
+        <v>18</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="18">
+        <v>6</v>
+      </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
     </row>
@@ -1697,6 +1749,33 @@
       <c r="E61" s="18"/>
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="18"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="18"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="18"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1718,7 +1797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
@@ -1750,7 +1829,7 @@
         <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1761,29 +1840,29 @@
         <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
